--- a/scripts/input/threshold.xlsx
+++ b/scripts/input/threshold.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muneeb\Desktop\count_script\output\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PostEx-Waleed\Desktop\DockerImage\Airflow_Docker\scripts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A5561F-EE0A-478D-8617-05590BEE7F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD28542-ED06-4AC3-B989-1EA242AB1A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{073B13C2-E5F2-4830-92FA-1DE34A568199}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{073B13C2-E5F2-4830-92FA-1DE34A568199}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>GG_dbo_Booking</t>
   </si>
@@ -107,21 +105,9 @@
     <t>GG_dbo_Forward</t>
   </si>
   <si>
-    <t>GG_dbo_ForwardDetail</t>
-  </si>
-  <si>
-    <t>GG_dbo_ForwardingExpense</t>
-  </si>
-  <si>
-    <t>GG_dbo_ForwardingExpenseDetail</t>
-  </si>
-  <si>
     <t>GG_dbo_GeneralClientAccount</t>
   </si>
   <si>
-    <t>GG_dbo_ManifestDetail</t>
-  </si>
-  <si>
     <t>GG_dbo_ManifestFormation</t>
   </si>
   <si>
@@ -248,15 +234,6 @@
     <t>GG_dbo_TransitDetail</t>
   </si>
   <si>
-    <t>GG_dbo_TransitLog</t>
-  </si>
-  <si>
-    <t>GG_dbo_TransitReceipt</t>
-  </si>
-  <si>
-    <t>GG_dbo_TransitReceiptLog</t>
-  </si>
-  <si>
     <t>GG_dbo_TypeofPresence</t>
   </si>
   <si>
@@ -264,13 +241,100 @@
   </si>
   <si>
     <t>threshold</t>
+  </si>
+  <si>
+    <t>CGG_GGF_tblCashCollectionReceivedCashDetail</t>
+  </si>
+  <si>
+    <t>CGG_GGF_tblCashCollectionSheetDetail</t>
+  </si>
+  <si>
+    <t>CGG_GGF_tblCashCollectionTransactionDetail</t>
+  </si>
+  <si>
+    <t>CGG_GGF_tblCashDenominationDetail</t>
+  </si>
+  <si>
+    <t>CGG_GGF_tblDepositByBranch</t>
+  </si>
+  <si>
+    <t>CGG_GGF_tblDigitalPayment</t>
+  </si>
+  <si>
+    <t>CGG_GGF_tblDigitalPaymentDetail</t>
+  </si>
+  <si>
+    <t>CGG_GG_Booking</t>
+  </si>
+  <si>
+    <t>CGG_GG_TicketRegistration</t>
+  </si>
+  <si>
+    <t>CGG_GG_TicketResolution</t>
+  </si>
+  <si>
+    <t>CGG_GG_TicketResolutionDetail</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_CNTrackOperationalReturnDebriefing</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_CustomerResponseLog</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_OperationalDelDebStatuses</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_tblOPSDeliveryDebriefing</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_tblOPSDeliveryDebriefingDetail</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_tblOPSDeliveryDebriefing_Exception_Log_Master</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_tblOPSReturnDebriefing</t>
+  </si>
+  <si>
+    <t>CGG_OPSDELDEB_tblOPSReturnDebriefingDetail</t>
+  </si>
+  <si>
+    <t>CGG_dbo_OTPLogs</t>
+  </si>
+  <si>
+    <t>CGG_dbo_S3BucketImageAttachmentUrls</t>
+  </si>
+  <si>
+    <t>CGG_dbo_UserLoginScreenHistory</t>
+  </si>
+  <si>
+    <t>CGG_dbo_UserOTP</t>
+  </si>
+  <si>
+    <t>CGG_dbo_Users</t>
+  </si>
+  <si>
+    <t>GG_dbo_CALL_LOGS</t>
+  </si>
+  <si>
+    <t>GG_dbo_DAILY_ATTENDANCE_REPORT</t>
+  </si>
+  <si>
+    <t>GG_web_PortalDashboard</t>
+  </si>
+  <si>
+    <t>SO_DMV_STATS_EXECUTIONSTATS</t>
+  </si>
+  <si>
+    <t>SO_dbo_tblBranchWiseCalender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,23 +708,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A5870B-0DB5-4153-B22E-A7AAA7645B90}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +735,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +743,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -684,7 +751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -692,7 +759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -700,7 +767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -708,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -716,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -724,7 +791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -732,7 +799,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -740,7 +807,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -748,7 +815,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -756,7 +823,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -764,7 +831,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -772,7 +839,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -780,7 +847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -788,7 +855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -796,7 +863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -804,7 +871,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -812,7 +879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -820,7 +887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -828,7 +895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -836,15 +903,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -852,23 +919,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -876,7 +943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -884,15 +951,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -900,7 +967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -908,7 +975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -916,7 +983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -924,7 +991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -932,7 +999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -940,7 +1007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -948,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -956,7 +1023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -964,7 +1031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -972,7 +1039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -980,7 +1047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -988,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -996,47 +1063,47 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1044,23 +1111,23 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1068,7 +1135,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1076,47 +1143,47 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1124,31 +1191,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1156,7 +1223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1164,7 +1231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1172,15 +1239,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1188,59 +1255,235 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>2000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
         <v>100</v>
       </c>
     </row>

--- a/scripts/input/threshold.xlsx
+++ b/scripts/input/threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PostEx-Waleed\Desktop\DockerImage\Airflow_Docker\scripts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD28542-ED06-4AC3-B989-1EA242AB1A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ADE70-FF66-4820-89E6-2ACDED38E6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{073B13C2-E5F2-4830-92FA-1DE34A568199}"/>
   </bookViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A5870B-0DB5-4153-B22E-A7AAA7645B90}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
